--- a/2023/ycsb/mysql_mariadb/selection.xlsx
+++ b/2023/ycsb/mysql_mariadb/selection.xlsx
@@ -116,9 +116,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-6053432750588504452" xfId="1" hidden="0"/>
-    <cellStyle name="6539366344192051676" xfId="2" hidden="0"/>
-    <cellStyle name="-761589868114320030" xfId="3" hidden="0"/>
+    <cellStyle name="1708378773739952762" xfId="1" hidden="0"/>
+    <cellStyle name="3405766188295486579" xfId="2" hidden="0"/>
+    <cellStyle name="-5667426141703989106" xfId="3" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -481,7 +481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DB16"/>
+  <dimension ref="A1:DL19"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="93.60000000000001" customWidth="1" min="106" max="106"/>
+    <col width="93.60000000000001" customWidth="1" min="116" max="116"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -910,115 +910,165 @@
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
+          <t>dbmsDeployment.DBAAS.planetscaleInstance.region</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>dbmsDeployment.DBAAS.planetscaleInstance.plan</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>dbmsDeployment.DBAAS.planetscaleInstance.clusterSize</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>benchmark.ycsb.workload.loadBatchSize</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>benchmark.ycsb.workload.runBatchSize</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
           <t>load_throughput_avg</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>load_insert_avg_latency_avg</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>load_insert_latency_90th_avg</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>load_insert_latency_95th_avg</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>load_insert_latency_99th_avg</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>run_throughput_avg</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>run_insert_avg_latency_avg</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>run_insert_latency_90th_avg</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>run_insert_latency_95th_avg</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>run_insert_latency_99th_avg</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>run_read_avg_latency_avg</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>run_read_latency_90th_avg</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>run_read_latency_95th_avg</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>run_read_latency_99th_avg</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>run_update_avg_latency_avg</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>run_update_latency_90th_avg</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>run_update_latency_95th_avg</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>run_update_latency_99th_avg</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>run_scan_avg_latency_avg</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>run_scan_latency_90th_avg</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>run_scan_latency_95th_avg</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>run_scan_latency_99th_avg</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>run_delete_avg_latency_avg</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>run_delete_latency_90th_avg</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>run_delete_latency_95th_avg</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>run_delete_latency_99th_avg</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>dbaas_deployment_time</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>source.directory</t>
         </is>
@@ -1282,101 +1332,81 @@
       <c r="CC2" s="2" t="inlineStr"/>
       <c r="CD2" s="2" t="inlineStr"/>
       <c r="CE2" s="2" t="inlineStr"/>
-      <c r="CF2" s="2" t="inlineStr">
+      <c r="CF2" s="2" t="inlineStr"/>
+      <c r="CG2" s="2" t="inlineStr"/>
+      <c r="CH2" s="2" t="inlineStr"/>
+      <c r="CI2" s="2" t="inlineStr"/>
+      <c r="CJ2" s="2" t="inlineStr"/>
+      <c r="CK2" s="2" t="inlineStr">
         <is>
           <t>4052.239855318828</t>
         </is>
       </c>
-      <c r="CG2" s="2" t="inlineStr">
+      <c r="CL2" s="2" t="inlineStr">
         <is>
           <t>24178.0708245</t>
         </is>
       </c>
-      <c r="CH2" s="2" t="inlineStr">
+      <c r="CM2" s="2" t="inlineStr">
         <is>
           <t>9.947154471544716</t>
         </is>
       </c>
-      <c r="CI2" s="2" t="inlineStr">
+      <c r="CN2" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="CJ2" s="2" t="inlineStr">
+      <c r="CO2" s="2" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="CK2" s="2" t="inlineStr">
+      <c r="CP2" s="2" t="inlineStr">
         <is>
           <t>6051.5203786572</t>
         </is>
       </c>
-      <c r="CL2" s="2" t="inlineStr">
+      <c r="CQ2" s="2" t="inlineStr">
         <is>
           <t>30918.855626612065</t>
         </is>
       </c>
-      <c r="CM2" s="2" t="inlineStr">
+      <c r="CR2" s="2" t="inlineStr">
         <is>
           <t>50382.815028901736</t>
         </is>
       </c>
-      <c r="CN2" s="2" t="inlineStr">
+      <c r="CS2" s="2" t="inlineStr">
         <is>
           <t>65279</t>
         </is>
       </c>
-      <c r="CO2" s="2" t="inlineStr">
+      <c r="CT2" s="2" t="inlineStr">
         <is>
           <t>159743</t>
         </is>
       </c>
-      <c r="CP2" s="2" t="inlineStr">
+      <c r="CU2" s="2" t="inlineStr">
         <is>
           <t>1675.9712427178692</t>
         </is>
       </c>
-      <c r="CQ2" s="2" t="inlineStr">
+      <c r="CV2" s="2" t="inlineStr">
         <is>
           <t>2446.2890173410406</t>
         </is>
       </c>
-      <c r="CR2" s="2" t="inlineStr">
+      <c r="CW2" s="2" t="inlineStr">
         <is>
           <t>3207</t>
         </is>
       </c>
-      <c r="CS2" s="2" t="inlineStr">
+      <c r="CX2" s="2" t="inlineStr">
         <is>
           <t>9247</t>
         </is>
       </c>
-      <c r="CT2" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CU2" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CV2" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CW2" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CX2" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="CY2" s="2" t="inlineStr">
         <is>
           <t>nan</t>
@@ -1392,7 +1422,57 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="DB2" s="3" t="inlineStr">
+      <c r="DB2" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DC2" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DD2" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DE2" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DF2" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DG2" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DH2" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DI2" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DJ2" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DK2" s="2" t="inlineStr">
+        <is>
+          <t>204.90689</t>
+        </is>
+      </c>
+      <c r="DL2" s="3" t="inlineStr">
         <is>
           <t>dbaas-navigator_ycsb_mariadb-azure_0_89i6Iw3A</t>
         </is>
@@ -1656,101 +1736,81 @@
       <c r="CC3" s="2" t="inlineStr"/>
       <c r="CD3" s="2" t="inlineStr"/>
       <c r="CE3" s="2" t="inlineStr"/>
-      <c r="CF3" s="2" t="inlineStr">
+      <c r="CF3" s="2" t="inlineStr"/>
+      <c r="CG3" s="2" t="inlineStr"/>
+      <c r="CH3" s="2" t="inlineStr"/>
+      <c r="CI3" s="2" t="inlineStr"/>
+      <c r="CJ3" s="2" t="inlineStr"/>
+      <c r="CK3" s="2" t="inlineStr">
         <is>
           <t>3376.905545588056</t>
         </is>
       </c>
-      <c r="CG3" s="2" t="inlineStr">
+      <c r="CL3" s="2" t="inlineStr">
         <is>
           <t>29193.375753</t>
         </is>
       </c>
-      <c r="CH3" s="2" t="inlineStr">
+      <c r="CM3" s="2" t="inlineStr">
         <is>
           <t>9.847972972972974</t>
         </is>
       </c>
-      <c r="CI3" s="2" t="inlineStr">
+      <c r="CN3" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="CJ3" s="2" t="inlineStr">
+      <c r="CO3" s="2" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="CK3" s="2" t="inlineStr">
+      <c r="CP3" s="2" t="inlineStr">
         <is>
           <t>5463.183320111904</t>
         </is>
       </c>
-      <c r="CL3" s="2" t="inlineStr">
+      <c r="CQ3" s="2" t="inlineStr">
         <is>
           <t>34269.68904361636</t>
         </is>
       </c>
-      <c r="CM3" s="2" t="inlineStr">
+      <c r="CR3" s="2" t="inlineStr">
         <is>
           <t>53706.098265895955</t>
         </is>
       </c>
-      <c r="CN3" s="2" t="inlineStr">
+      <c r="CS3" s="2" t="inlineStr">
         <is>
           <t>65343</t>
         </is>
       </c>
-      <c r="CO3" s="2" t="inlineStr">
+      <c r="CT3" s="2" t="inlineStr">
         <is>
           <t>125631</t>
         </is>
       </c>
-      <c r="CP3" s="2" t="inlineStr">
+      <c r="CU3" s="2" t="inlineStr">
         <is>
           <t>1849.2295977398308</t>
         </is>
       </c>
-      <c r="CQ3" s="2" t="inlineStr">
+      <c r="CV3" s="2" t="inlineStr">
         <is>
           <t>2657.2023121387283</t>
         </is>
       </c>
-      <c r="CR3" s="2" t="inlineStr">
+      <c r="CW3" s="2" t="inlineStr">
         <is>
           <t>3501</t>
         </is>
       </c>
-      <c r="CS3" s="2" t="inlineStr">
+      <c r="CX3" s="2" t="inlineStr">
         <is>
           <t>11543</t>
         </is>
       </c>
-      <c r="CT3" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CU3" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CV3" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CW3" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CX3" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="CY3" s="2" t="inlineStr">
         <is>
           <t>nan</t>
@@ -1766,7 +1826,57 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="DB3" s="3" t="inlineStr">
+      <c r="DB3" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DC3" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DD3" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DE3" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DF3" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DG3" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DH3" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DI3" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DJ3" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DK3" s="2" t="inlineStr">
+        <is>
+          <t>204.053236</t>
+        </is>
+      </c>
+      <c r="DL3" s="3" t="inlineStr">
         <is>
           <t>dbaas-navigator_ycsb_mariadb-azure_0_eNzOvb0P</t>
         </is>
@@ -2030,101 +2140,81 @@
       <c r="CC4" s="2" t="inlineStr"/>
       <c r="CD4" s="2" t="inlineStr"/>
       <c r="CE4" s="2" t="inlineStr"/>
-      <c r="CF4" s="2" t="inlineStr">
+      <c r="CF4" s="2" t="inlineStr"/>
+      <c r="CG4" s="2" t="inlineStr"/>
+      <c r="CH4" s="2" t="inlineStr"/>
+      <c r="CI4" s="2" t="inlineStr"/>
+      <c r="CJ4" s="2" t="inlineStr"/>
+      <c r="CK4" s="2" t="inlineStr">
         <is>
           <t>3459.7000301685844</t>
         </is>
       </c>
-      <c r="CG4" s="2" t="inlineStr">
+      <c r="CL4" s="2" t="inlineStr">
         <is>
           <t>28545.8260766</t>
         </is>
       </c>
-      <c r="CH4" s="2" t="inlineStr">
+      <c r="CM4" s="2" t="inlineStr">
         <is>
           <t>9.92013888888889</t>
         </is>
       </c>
-      <c r="CI4" s="2" t="inlineStr">
+      <c r="CN4" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="CJ4" s="2" t="inlineStr">
+      <c r="CO4" s="2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="CK4" s="2" t="inlineStr">
+      <c r="CP4" s="2" t="inlineStr">
         <is>
           <t>5698.238640371903</t>
         </is>
       </c>
-      <c r="CL4" s="2" t="inlineStr">
+      <c r="CQ4" s="2" t="inlineStr">
         <is>
           <t>32844.832012287436</t>
         </is>
       </c>
-      <c r="CM4" s="2" t="inlineStr">
+      <c r="CR4" s="2" t="inlineStr">
         <is>
           <t>50976.66473988439</t>
         </is>
       </c>
-      <c r="CN4" s="2" t="inlineStr">
+      <c r="CS4" s="2" t="inlineStr">
         <is>
           <t>62463</t>
         </is>
       </c>
-      <c r="CO4" s="2" t="inlineStr">
+      <c r="CT4" s="2" t="inlineStr">
         <is>
           <t>131199</t>
         </is>
       </c>
-      <c r="CP4" s="2" t="inlineStr">
+      <c r="CU4" s="2" t="inlineStr">
         <is>
           <t>1782.8365776324385</t>
         </is>
       </c>
-      <c r="CQ4" s="2" t="inlineStr">
+      <c r="CV4" s="2" t="inlineStr">
         <is>
           <t>2580.9595375722542</t>
         </is>
       </c>
-      <c r="CR4" s="2" t="inlineStr">
+      <c r="CW4" s="2" t="inlineStr">
         <is>
           <t>3313</t>
         </is>
       </c>
-      <c r="CS4" s="2" t="inlineStr">
+      <c r="CX4" s="2" t="inlineStr">
         <is>
           <t>10375</t>
         </is>
       </c>
-      <c r="CT4" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CU4" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CV4" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CW4" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CX4" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="CY4" s="2" t="inlineStr">
         <is>
           <t>nan</t>
@@ -2140,7 +2230,57 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="DB4" s="3" t="inlineStr">
+      <c r="DB4" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DC4" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DD4" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DE4" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DF4" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DG4" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DH4" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DI4" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DJ4" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DK4" s="2" t="inlineStr">
+        <is>
+          <t>200.177025</t>
+        </is>
+      </c>
+      <c r="DL4" s="3" t="inlineStr">
         <is>
           <t>dbaas-navigator_ycsb_mariadb-azure_1_NHhQzp6b</t>
         </is>
@@ -2412,101 +2552,81 @@
       <c r="CC5" s="2" t="inlineStr"/>
       <c r="CD5" s="2" t="inlineStr"/>
       <c r="CE5" s="2" t="inlineStr"/>
-      <c r="CF5" s="2" t="inlineStr">
+      <c r="CF5" s="2" t="inlineStr"/>
+      <c r="CG5" s="2" t="inlineStr"/>
+      <c r="CH5" s="2" t="inlineStr"/>
+      <c r="CI5" s="2" t="inlineStr"/>
+      <c r="CJ5" s="2" t="inlineStr"/>
+      <c r="CK5" s="2" t="inlineStr">
         <is>
           <t>12453.951514275965</t>
         </is>
       </c>
-      <c r="CG5" s="2" t="inlineStr">
+      <c r="CL5" s="2" t="inlineStr">
         <is>
           <t>7934.6982281</t>
         </is>
       </c>
-      <c r="CH5" s="2" t="inlineStr">
+      <c r="CM5" s="2" t="inlineStr">
         <is>
           <t>12.725</t>
         </is>
       </c>
-      <c r="CI5" s="2" t="inlineStr">
+      <c r="CN5" s="2" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="CJ5" s="2" t="inlineStr">
+      <c r="CO5" s="2" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="CK5" s="2" t="inlineStr">
+      <c r="CP5" s="2" t="inlineStr">
         <is>
           <t>9074.562339168811</t>
         </is>
       </c>
-      <c r="CL5" s="2" t="inlineStr">
+      <c r="CQ5" s="2" t="inlineStr">
         <is>
           <t>20576.075284073002</t>
         </is>
       </c>
-      <c r="CM5" s="2" t="inlineStr">
+      <c r="CR5" s="2" t="inlineStr">
         <is>
           <t>27348.64161849711</t>
         </is>
       </c>
-      <c r="CN5" s="2" t="inlineStr">
+      <c r="CS5" s="2" t="inlineStr">
         <is>
           <t>34463</t>
         </is>
       </c>
-      <c r="CO5" s="2" t="inlineStr">
+      <c r="CT5" s="2" t="inlineStr">
         <is>
           <t>59231</t>
         </is>
       </c>
-      <c r="CP5" s="2" t="inlineStr">
+      <c r="CU5" s="2" t="inlineStr">
         <is>
           <t>1105.718157375079</t>
         </is>
       </c>
-      <c r="CQ5" s="2" t="inlineStr">
+      <c r="CV5" s="2" t="inlineStr">
         <is>
           <t>2355.566473988439</t>
         </is>
       </c>
-      <c r="CR5" s="2" t="inlineStr">
+      <c r="CW5" s="2" t="inlineStr">
         <is>
           <t>3399</t>
         </is>
       </c>
-      <c r="CS5" s="2" t="inlineStr">
+      <c r="CX5" s="2" t="inlineStr">
         <is>
           <t>7443</t>
         </is>
       </c>
-      <c r="CT5" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CU5" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CV5" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CW5" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CX5" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="CY5" s="2" t="inlineStr">
         <is>
           <t>nan</t>
@@ -2522,7 +2642,57 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="DB5" s="3" t="inlineStr">
+      <c r="DB5" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DC5" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DD5" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DE5" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DF5" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DG5" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DH5" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DI5" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DJ5" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DK5" s="2" t="inlineStr">
+        <is>
+          <t>927.387841</t>
+        </is>
+      </c>
+      <c r="DL5" s="3" t="inlineStr">
         <is>
           <t>dbaas-navigator_ycsb_mariadb-rds-aws_0_TPtU1cum</t>
         </is>
@@ -2794,101 +2964,81 @@
       <c r="CC6" s="2" t="inlineStr"/>
       <c r="CD6" s="2" t="inlineStr"/>
       <c r="CE6" s="2" t="inlineStr"/>
-      <c r="CF6" s="2" t="inlineStr">
+      <c r="CF6" s="2" t="inlineStr"/>
+      <c r="CG6" s="2" t="inlineStr"/>
+      <c r="CH6" s="2" t="inlineStr"/>
+      <c r="CI6" s="2" t="inlineStr"/>
+      <c r="CJ6" s="2" t="inlineStr"/>
+      <c r="CK6" s="2" t="inlineStr">
         <is>
           <t>12190.765982398972</t>
         </is>
       </c>
-      <c r="CG6" s="2" t="inlineStr">
+      <c r="CL6" s="2" t="inlineStr">
         <is>
           <t>8048.6255267</t>
         </is>
       </c>
-      <c r="CH6" s="2" t="inlineStr">
+      <c r="CM6" s="2" t="inlineStr">
         <is>
           <t>13.777777777777779</t>
         </is>
       </c>
-      <c r="CI6" s="2" t="inlineStr">
+      <c r="CN6" s="2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="CJ6" s="2" t="inlineStr">
+      <c r="CO6" s="2" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="CK6" s="2" t="inlineStr">
+      <c r="CP6" s="2" t="inlineStr">
         <is>
           <t>8984.456951622553</t>
         </is>
       </c>
-      <c r="CL6" s="2" t="inlineStr">
+      <c r="CQ6" s="2" t="inlineStr">
         <is>
           <t>20271.72353827902</t>
         </is>
       </c>
-      <c r="CM6" s="2" t="inlineStr">
+      <c r="CR6" s="2" t="inlineStr">
         <is>
           <t>37416.06358381503</t>
         </is>
       </c>
-      <c r="CN6" s="2" t="inlineStr">
+      <c r="CS6" s="2" t="inlineStr">
         <is>
           <t>35231</t>
         </is>
       </c>
-      <c r="CO6" s="2" t="inlineStr">
+      <c r="CT6" s="2" t="inlineStr">
         <is>
           <t>62207</t>
         </is>
       </c>
-      <c r="CP6" s="2" t="inlineStr">
+      <c r="CU6" s="2" t="inlineStr">
         <is>
           <t>1678.2042649641928</t>
         </is>
       </c>
-      <c r="CQ6" s="2" t="inlineStr">
+      <c r="CV6" s="2" t="inlineStr">
         <is>
           <t>2715.6531791907514</t>
         </is>
       </c>
-      <c r="CR6" s="2" t="inlineStr">
+      <c r="CW6" s="2" t="inlineStr">
         <is>
           <t>3671</t>
         </is>
       </c>
-      <c r="CS6" s="2" t="inlineStr">
+      <c r="CX6" s="2" t="inlineStr">
         <is>
           <t>8207</t>
         </is>
       </c>
-      <c r="CT6" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CU6" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CV6" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CW6" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CX6" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="CY6" s="2" t="inlineStr">
         <is>
           <t>nan</t>
@@ -2904,7 +3054,57 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="DB6" s="3" t="inlineStr">
+      <c r="DB6" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DC6" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DD6" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DE6" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DF6" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DG6" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DH6" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DI6" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DJ6" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DK6" s="2" t="inlineStr">
+        <is>
+          <t>987.138655</t>
+        </is>
+      </c>
+      <c r="DL6" s="3" t="inlineStr">
         <is>
           <t>dbaas-navigator_ycsb_mariadb-rds-aws_0_vTmFg6xd</t>
         </is>
@@ -3176,101 +3376,81 @@
       <c r="CC7" s="2" t="inlineStr"/>
       <c r="CD7" s="2" t="inlineStr"/>
       <c r="CE7" s="2" t="inlineStr"/>
-      <c r="CF7" s="2" t="inlineStr">
+      <c r="CF7" s="2" t="inlineStr"/>
+      <c r="CG7" s="2" t="inlineStr"/>
+      <c r="CH7" s="2" t="inlineStr"/>
+      <c r="CI7" s="2" t="inlineStr"/>
+      <c r="CJ7" s="2" t="inlineStr"/>
+      <c r="CK7" s="2" t="inlineStr">
         <is>
           <t>12280.199774289928</t>
         </is>
       </c>
-      <c r="CG7" s="2" t="inlineStr">
+      <c r="CL7" s="2" t="inlineStr">
         <is>
           <t>8090.4199838</t>
         </is>
       </c>
-      <c r="CH7" s="2" t="inlineStr">
+      <c r="CM7" s="2" t="inlineStr">
         <is>
           <t>14.308641975308642</t>
         </is>
       </c>
-      <c r="CI7" s="2" t="inlineStr">
+      <c r="CN7" s="2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="CJ7" s="2" t="inlineStr">
+      <c r="CO7" s="2" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="CK7" s="2" t="inlineStr">
+      <c r="CP7" s="2" t="inlineStr">
         <is>
           <t>8530.38062022308</t>
         </is>
       </c>
-      <c r="CL7" s="2" t="inlineStr">
+      <c r="CQ7" s="2" t="inlineStr">
         <is>
           <t>21482.181223395313</t>
         </is>
       </c>
-      <c r="CM7" s="2" t="inlineStr">
+      <c r="CR7" s="2" t="inlineStr">
         <is>
           <t>42492.687861271676</t>
         </is>
       </c>
-      <c r="CN7" s="2" t="inlineStr">
+      <c r="CS7" s="2" t="inlineStr">
         <is>
           <t>35583</t>
         </is>
       </c>
-      <c r="CO7" s="2" t="inlineStr">
+      <c r="CT7" s="2" t="inlineStr">
         <is>
           <t>69887</t>
         </is>
       </c>
-      <c r="CP7" s="2" t="inlineStr">
+      <c r="CU7" s="2" t="inlineStr">
         <is>
           <t>1667.630237265414</t>
         </is>
       </c>
-      <c r="CQ7" s="2" t="inlineStr">
+      <c r="CV7" s="2" t="inlineStr">
         <is>
           <t>2653.0462427745665</t>
         </is>
       </c>
-      <c r="CR7" s="2" t="inlineStr">
+      <c r="CW7" s="2" t="inlineStr">
         <is>
           <t>3625</t>
         </is>
       </c>
-      <c r="CS7" s="2" t="inlineStr">
+      <c r="CX7" s="2" t="inlineStr">
         <is>
           <t>7227</t>
         </is>
       </c>
-      <c r="CT7" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CU7" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CV7" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CW7" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CX7" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="CY7" s="2" t="inlineStr">
         <is>
           <t>nan</t>
@@ -3286,7 +3466,57 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="DB7" s="3" t="inlineStr">
+      <c r="DB7" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DC7" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DD7" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DE7" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DF7" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DG7" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DH7" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DI7" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DJ7" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DK7" s="2" t="inlineStr">
+        <is>
+          <t>987.107406</t>
+        </is>
+      </c>
+      <c r="DL7" s="3" t="inlineStr">
         <is>
           <t>dbaas-navigator_ycsb_mariadb-rds-aws_1_YOUUiDuH</t>
         </is>
@@ -3558,101 +3788,81 @@
       <c r="CC8" s="2" t="inlineStr"/>
       <c r="CD8" s="2" t="inlineStr"/>
       <c r="CE8" s="2" t="inlineStr"/>
-      <c r="CF8" s="2" t="inlineStr">
+      <c r="CF8" s="2" t="inlineStr"/>
+      <c r="CG8" s="2" t="inlineStr"/>
+      <c r="CH8" s="2" t="inlineStr"/>
+      <c r="CI8" s="2" t="inlineStr"/>
+      <c r="CJ8" s="2" t="inlineStr"/>
+      <c r="CK8" s="2" t="inlineStr">
         <is>
           <t>2262.502816816007</t>
         </is>
       </c>
-      <c r="CG8" s="2" t="inlineStr">
+      <c r="CL8" s="2" t="inlineStr">
         <is>
           <t>44023.2104519</t>
         </is>
       </c>
-      <c r="CH8" s="2" t="inlineStr">
+      <c r="CM8" s="2" t="inlineStr">
         <is>
           <t>88472.66213151928</t>
         </is>
       </c>
-      <c r="CI8" s="2" t="inlineStr">
+      <c r="CN8" s="2" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="CJ8" s="2" t="inlineStr">
+      <c r="CO8" s="2" t="inlineStr">
         <is>
           <t>89</t>
         </is>
       </c>
-      <c r="CK8" s="2" t="inlineStr">
+      <c r="CP8" s="2" t="inlineStr">
         <is>
           <t>3787.5795879343555</t>
         </is>
       </c>
-      <c r="CL8" s="2" t="inlineStr">
+      <c r="CQ8" s="2" t="inlineStr">
         <is>
           <t>49274.942972707475</t>
         </is>
       </c>
-      <c r="CM8" s="2" t="inlineStr">
+      <c r="CR8" s="2" t="inlineStr">
         <is>
           <t>80620.5028901734</t>
         </is>
       </c>
-      <c r="CN8" s="2" t="inlineStr">
+      <c r="CS8" s="2" t="inlineStr">
         <is>
           <t>98495</t>
         </is>
       </c>
-      <c r="CO8" s="2" t="inlineStr">
+      <c r="CT8" s="2" t="inlineStr">
         <is>
           <t>187263</t>
         </is>
       </c>
-      <c r="CP8" s="2" t="inlineStr">
+      <c r="CU8" s="2" t="inlineStr">
         <is>
           <t>2852.6381281259887</t>
         </is>
       </c>
-      <c r="CQ8" s="2" t="inlineStr">
+      <c r="CV8" s="2" t="inlineStr">
         <is>
           <t>4561.06936416185</t>
         </is>
       </c>
-      <c r="CR8" s="2" t="inlineStr">
+      <c r="CW8" s="2" t="inlineStr">
         <is>
           <t>7367</t>
         </is>
       </c>
-      <c r="CS8" s="2" t="inlineStr">
+      <c r="CX8" s="2" t="inlineStr">
         <is>
           <t>28751</t>
         </is>
       </c>
-      <c r="CT8" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CU8" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CV8" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CW8" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CX8" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="CY8" s="2" t="inlineStr">
         <is>
           <t>nan</t>
@@ -3668,7 +3878,57 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="DB8" s="3" t="inlineStr">
+      <c r="DB8" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DC8" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DD8" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DE8" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DF8" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DG8" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DH8" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DI8" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DJ8" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DK8" s="2" t="inlineStr">
+        <is>
+          <t>1196.296161</t>
+        </is>
+      </c>
+      <c r="DL8" s="3" t="inlineStr">
         <is>
           <t>dbaas-navigator_ycsb_mysql-flexible-server-azure_0_sackyTNt</t>
         </is>
@@ -3940,101 +4200,81 @@
       <c r="CC9" s="2" t="inlineStr"/>
       <c r="CD9" s="2" t="inlineStr"/>
       <c r="CE9" s="2" t="inlineStr"/>
-      <c r="CF9" s="2" t="inlineStr">
+      <c r="CF9" s="2" t="inlineStr"/>
+      <c r="CG9" s="2" t="inlineStr"/>
+      <c r="CH9" s="2" t="inlineStr"/>
+      <c r="CI9" s="2" t="inlineStr"/>
+      <c r="CJ9" s="2" t="inlineStr"/>
+      <c r="CK9" s="2" t="inlineStr">
         <is>
           <t>2311.8746668010635</t>
         </is>
       </c>
-      <c r="CG9" s="2" t="inlineStr">
+      <c r="CL9" s="2" t="inlineStr">
         <is>
           <t>43029.1972502</t>
         </is>
       </c>
-      <c r="CH9" s="2" t="inlineStr">
+      <c r="CM9" s="2" t="inlineStr">
         <is>
           <t>76966.20601851853</t>
         </is>
       </c>
-      <c r="CI9" s="2" t="inlineStr">
+      <c r="CN9" s="2" t="inlineStr">
         <is>
           <t>69</t>
         </is>
       </c>
-      <c r="CJ9" s="2" t="inlineStr">
+      <c r="CO9" s="2" t="inlineStr">
         <is>
           <t>83</t>
         </is>
       </c>
-      <c r="CK9" s="2" t="inlineStr">
+      <c r="CP9" s="2" t="inlineStr">
         <is>
           <t>3869.8285665398375</t>
         </is>
       </c>
-      <c r="CL9" s="2" t="inlineStr">
+      <c r="CQ9" s="2" t="inlineStr">
         <is>
           <t>48965.81781707621</t>
         </is>
       </c>
-      <c r="CM9" s="2" t="inlineStr">
+      <c r="CR9" s="2" t="inlineStr">
         <is>
           <t>80310.30635838151</t>
         </is>
       </c>
-      <c r="CN9" s="2" t="inlineStr">
+      <c r="CS9" s="2" t="inlineStr">
         <is>
           <t>96511</t>
         </is>
       </c>
-      <c r="CO9" s="2" t="inlineStr">
+      <c r="CT9" s="2" t="inlineStr">
         <is>
           <t>199039</t>
         </is>
       </c>
-      <c r="CP9" s="2" t="inlineStr">
+      <c r="CU9" s="2" t="inlineStr">
         <is>
           <t>2002.373166929812</t>
         </is>
       </c>
-      <c r="CQ9" s="2" t="inlineStr">
+      <c r="CV9" s="2" t="inlineStr">
         <is>
           <t>3882.5606936416184</t>
         </is>
       </c>
-      <c r="CR9" s="2" t="inlineStr">
+      <c r="CW9" s="2" t="inlineStr">
         <is>
           <t>7303</t>
         </is>
       </c>
-      <c r="CS9" s="2" t="inlineStr">
+      <c r="CX9" s="2" t="inlineStr">
         <is>
           <t>28975</t>
         </is>
       </c>
-      <c r="CT9" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CU9" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CV9" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CW9" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CX9" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="CY9" s="2" t="inlineStr">
         <is>
           <t>nan</t>
@@ -4050,7 +4290,57 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="DB9" s="3" t="inlineStr">
+      <c r="DB9" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DC9" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DD9" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DE9" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DF9" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DG9" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DH9" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DI9" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DJ9" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DK9" s="2" t="inlineStr">
+        <is>
+          <t>1378.530566</t>
+        </is>
+      </c>
+      <c r="DL9" s="3" t="inlineStr">
         <is>
           <t>dbaas-navigator_ycsb_mysql-flexible-server-azure_0_YMOSyEHB</t>
         </is>
@@ -4322,101 +4612,81 @@
       <c r="CC10" s="2" t="inlineStr"/>
       <c r="CD10" s="2" t="inlineStr"/>
       <c r="CE10" s="2" t="inlineStr"/>
-      <c r="CF10" s="2" t="inlineStr">
+      <c r="CF10" s="2" t="inlineStr"/>
+      <c r="CG10" s="2" t="inlineStr"/>
+      <c r="CH10" s="2" t="inlineStr"/>
+      <c r="CI10" s="2" t="inlineStr"/>
+      <c r="CJ10" s="2" t="inlineStr"/>
+      <c r="CK10" s="2" t="inlineStr">
         <is>
           <t>2330.6399680982</t>
         </is>
       </c>
-      <c r="CG10" s="2" t="inlineStr">
+      <c r="CL10" s="2" t="inlineStr">
         <is>
           <t>42670.7659293</t>
         </is>
       </c>
-      <c r="CH10" s="2" t="inlineStr">
+      <c r="CM10" s="2" t="inlineStr">
         <is>
           <t>51.53504672897196</t>
         </is>
       </c>
-      <c r="CI10" s="2" t="inlineStr">
+      <c r="CN10" s="2" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="CJ10" s="2" t="inlineStr">
+      <c r="CO10" s="2" t="inlineStr">
         <is>
           <t>82</t>
         </is>
       </c>
-      <c r="CK10" s="2" t="inlineStr">
+      <c r="CP10" s="2" t="inlineStr">
         <is>
           <t>3951.799826114492</t>
         </is>
       </c>
-      <c r="CL10" s="2" t="inlineStr">
+      <c r="CQ10" s="2" t="inlineStr">
         <is>
           <t>47099.5752106384</t>
         </is>
       </c>
-      <c r="CM10" s="2" t="inlineStr">
+      <c r="CR10" s="2" t="inlineStr">
         <is>
           <t>75883.20809248555</t>
         </is>
       </c>
-      <c r="CN10" s="2" t="inlineStr">
+      <c r="CS10" s="2" t="inlineStr">
         <is>
           <t>93823</t>
         </is>
       </c>
-      <c r="CO10" s="2" t="inlineStr">
+      <c r="CT10" s="2" t="inlineStr">
         <is>
           <t>207615</t>
         </is>
       </c>
-      <c r="CP10" s="2" t="inlineStr">
+      <c r="CU10" s="2" t="inlineStr">
         <is>
           <t>2773.5486547364944</t>
         </is>
       </c>
-      <c r="CQ10" s="2" t="inlineStr">
+      <c r="CV10" s="2" t="inlineStr">
         <is>
           <t>4611.393063583815</t>
         </is>
       </c>
-      <c r="CR10" s="2" t="inlineStr">
+      <c r="CW10" s="2" t="inlineStr">
         <is>
           <t>7211</t>
         </is>
       </c>
-      <c r="CS10" s="2" t="inlineStr">
+      <c r="CX10" s="2" t="inlineStr">
         <is>
           <t>27327</t>
         </is>
       </c>
-      <c r="CT10" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CU10" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CV10" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CW10" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CX10" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="CY10" s="2" t="inlineStr">
         <is>
           <t>nan</t>
@@ -4432,7 +4702,57 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="DB10" s="3" t="inlineStr">
+      <c r="DB10" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DC10" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DD10" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DE10" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DF10" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DG10" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DH10" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DI10" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DJ10" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DK10" s="2" t="inlineStr">
+        <is>
+          <t>1133.333233</t>
+        </is>
+      </c>
+      <c r="DL10" s="3" t="inlineStr">
         <is>
           <t>dbaas-navigator_ycsb_mysql-flexible-server-azure_1_Xti0Cm7e</t>
         </is>
@@ -4704,101 +5024,81 @@
       <c r="CC11" s="2" t="inlineStr"/>
       <c r="CD11" s="2" t="inlineStr"/>
       <c r="CE11" s="2" t="inlineStr"/>
-      <c r="CF11" s="2" t="inlineStr">
+      <c r="CF11" s="2" t="inlineStr"/>
+      <c r="CG11" s="2" t="inlineStr"/>
+      <c r="CH11" s="2" t="inlineStr"/>
+      <c r="CI11" s="2" t="inlineStr"/>
+      <c r="CJ11" s="2" t="inlineStr"/>
+      <c r="CK11" s="2" t="inlineStr">
         <is>
           <t>3005.3549414346485</t>
         </is>
       </c>
-      <c r="CG11" s="2" t="inlineStr">
+      <c r="CL11" s="2" t="inlineStr">
         <is>
           <t>33104.5784598</t>
         </is>
       </c>
-      <c r="CH11" s="2" t="inlineStr">
+      <c r="CM11" s="2" t="inlineStr">
         <is>
           <t>94661.5813253012</t>
         </is>
       </c>
-      <c r="CI11" s="2" t="inlineStr">
+      <c r="CN11" s="2" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="CJ11" s="2" t="inlineStr">
+      <c r="CO11" s="2" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="CK11" s="2" t="inlineStr">
+      <c r="CP11" s="2" t="inlineStr">
         <is>
           <t>5469.753003089337</t>
         </is>
       </c>
-      <c r="CL11" s="2" t="inlineStr">
+      <c r="CQ11" s="2" t="inlineStr">
         <is>
           <t>33887.054759844475</t>
         </is>
       </c>
-      <c r="CM11" s="2" t="inlineStr">
+      <c r="CR11" s="2" t="inlineStr">
         <is>
           <t>49921.95953757226</t>
         </is>
       </c>
-      <c r="CN11" s="2" t="inlineStr">
+      <c r="CS11" s="2" t="inlineStr">
         <is>
           <t>60063</t>
         </is>
       </c>
-      <c r="CO11" s="2" t="inlineStr">
+      <c r="CT11" s="2" t="inlineStr">
         <is>
           <t>88255</t>
         </is>
       </c>
-      <c r="CP11" s="2" t="inlineStr">
+      <c r="CU11" s="2" t="inlineStr">
         <is>
           <t>2289.1728920251658</t>
         </is>
       </c>
-      <c r="CQ11" s="2" t="inlineStr">
+      <c r="CV11" s="2" t="inlineStr">
         <is>
           <t>3988.306358381503</t>
         </is>
       </c>
-      <c r="CR11" s="2" t="inlineStr">
+      <c r="CW11" s="2" t="inlineStr">
         <is>
           <t>5315</t>
         </is>
       </c>
-      <c r="CS11" s="2" t="inlineStr">
+      <c r="CX11" s="2" t="inlineStr">
         <is>
           <t>16559</t>
         </is>
       </c>
-      <c r="CT11" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CU11" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CV11" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CW11" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CX11" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="CY11" s="2" t="inlineStr">
         <is>
           <t>nan</t>
@@ -4814,7 +5114,57 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="DB11" s="3" t="inlineStr">
+      <c r="DB11" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DC11" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DD11" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DE11" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DF11" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DG11" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DH11" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DI11" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DJ11" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DK11" s="2" t="inlineStr">
+        <is>
+          <t>926.044524</t>
+        </is>
+      </c>
+      <c r="DL11" s="3" t="inlineStr">
         <is>
           <t>dbaas-navigator_ycsb_mysql-rds-aws_0_H1TpCGQi</t>
         </is>
@@ -5086,101 +5436,81 @@
       <c r="CC12" s="2" t="inlineStr"/>
       <c r="CD12" s="2" t="inlineStr"/>
       <c r="CE12" s="2" t="inlineStr"/>
-      <c r="CF12" s="2" t="inlineStr">
+      <c r="CF12" s="2" t="inlineStr"/>
+      <c r="CG12" s="2" t="inlineStr"/>
+      <c r="CH12" s="2" t="inlineStr"/>
+      <c r="CI12" s="2" t="inlineStr"/>
+      <c r="CJ12" s="2" t="inlineStr"/>
+      <c r="CK12" s="2" t="inlineStr">
         <is>
           <t>3084.045799313738</t>
         </is>
       </c>
-      <c r="CG12" s="2" t="inlineStr">
+      <c r="CL12" s="2" t="inlineStr">
         <is>
           <t>32269.6369593</t>
         </is>
       </c>
-      <c r="CH12" s="2" t="inlineStr">
+      <c r="CM12" s="2" t="inlineStr">
         <is>
           <t>185692.94444444444</t>
         </is>
       </c>
-      <c r="CI12" s="2" t="inlineStr">
+      <c r="CN12" s="2" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="CJ12" s="2" t="inlineStr">
+      <c r="CO12" s="2" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="CK12" s="2" t="inlineStr">
+      <c r="CP12" s="2" t="inlineStr">
         <is>
           <t>5588.050885733762</t>
         </is>
       </c>
-      <c r="CL12" s="2" t="inlineStr">
+      <c r="CQ12" s="2" t="inlineStr">
         <is>
           <t>33450.37464461859</t>
         </is>
       </c>
-      <c r="CM12" s="2" t="inlineStr">
+      <c r="CR12" s="2" t="inlineStr">
         <is>
           <t>51698.42196531792</t>
         </is>
       </c>
-      <c r="CN12" s="2" t="inlineStr">
+      <c r="CS12" s="2" t="inlineStr">
         <is>
           <t>62303</t>
         </is>
       </c>
-      <c r="CO12" s="2" t="inlineStr">
+      <c r="CT12" s="2" t="inlineStr">
         <is>
           <t>90879</t>
         </is>
       </c>
-      <c r="CP12" s="2" t="inlineStr">
+      <c r="CU12" s="2" t="inlineStr">
         <is>
           <t>1868.2451034768303</t>
         </is>
       </c>
-      <c r="CQ12" s="2" t="inlineStr">
+      <c r="CV12" s="2" t="inlineStr">
         <is>
           <t>3679.300578034682</t>
         </is>
       </c>
-      <c r="CR12" s="2" t="inlineStr">
+      <c r="CW12" s="2" t="inlineStr">
         <is>
           <t>5355</t>
         </is>
       </c>
-      <c r="CS12" s="2" t="inlineStr">
+      <c r="CX12" s="2" t="inlineStr">
         <is>
           <t>19119</t>
         </is>
       </c>
-      <c r="CT12" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CU12" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CV12" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CW12" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CX12" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="CY12" s="2" t="inlineStr">
         <is>
           <t>nan</t>
@@ -5196,7 +5526,57 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="DB12" s="3" t="inlineStr">
+      <c r="DB12" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DC12" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DD12" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DE12" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DF12" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DG12" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DH12" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DI12" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DJ12" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DK12" s="2" t="inlineStr">
+        <is>
+          <t>986.85712</t>
+        </is>
+      </c>
+      <c r="DL12" s="3" t="inlineStr">
         <is>
           <t>dbaas-navigator_ycsb_mysql-rds-aws_0_Pl0ZGbQq</t>
         </is>
@@ -5468,101 +5848,81 @@
       <c r="CC13" s="2" t="inlineStr"/>
       <c r="CD13" s="2" t="inlineStr"/>
       <c r="CE13" s="2" t="inlineStr"/>
-      <c r="CF13" s="2" t="inlineStr">
+      <c r="CF13" s="2" t="inlineStr"/>
+      <c r="CG13" s="2" t="inlineStr"/>
+      <c r="CH13" s="2" t="inlineStr"/>
+      <c r="CI13" s="2" t="inlineStr"/>
+      <c r="CJ13" s="2" t="inlineStr"/>
+      <c r="CK13" s="2" t="inlineStr">
         <is>
           <t>2878.4623944719706</t>
         </is>
       </c>
-      <c r="CG13" s="2" t="inlineStr">
+      <c r="CL13" s="2" t="inlineStr">
         <is>
           <t>34600.9001655</t>
         </is>
       </c>
-      <c r="CH13" s="2" t="inlineStr">
+      <c r="CM13" s="2" t="inlineStr">
         <is>
           <t>184195.91930835735</t>
         </is>
       </c>
-      <c r="CI13" s="2" t="inlineStr">
+      <c r="CN13" s="2" t="inlineStr">
         <is>
           <t>87</t>
         </is>
       </c>
-      <c r="CJ13" s="2" t="inlineStr">
+      <c r="CO13" s="2" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="CK13" s="2" t="inlineStr">
+      <c r="CP13" s="2" t="inlineStr">
         <is>
           <t>5168.470806271239</t>
         </is>
       </c>
-      <c r="CL13" s="2" t="inlineStr">
+      <c r="CQ13" s="2" t="inlineStr">
         <is>
           <t>35764.20895353624</t>
         </is>
       </c>
-      <c r="CM13" s="2" t="inlineStr">
+      <c r="CR13" s="2" t="inlineStr">
         <is>
           <t>55901.89017341041</t>
         </is>
       </c>
-      <c r="CN13" s="2" t="inlineStr">
+      <c r="CS13" s="2" t="inlineStr">
         <is>
           <t>66687</t>
         </is>
       </c>
-      <c r="CO13" s="2" t="inlineStr">
+      <c r="CT13" s="2" t="inlineStr">
         <is>
           <t>95999</t>
         </is>
       </c>
-      <c r="CP13" s="2" t="inlineStr">
+      <c r="CU13" s="2" t="inlineStr">
         <is>
           <t>2371.3783523186803</t>
         </is>
       </c>
-      <c r="CQ13" s="2" t="inlineStr">
+      <c r="CV13" s="2" t="inlineStr">
         <is>
           <t>5063.346820809248</t>
         </is>
       </c>
-      <c r="CR13" s="2" t="inlineStr">
+      <c r="CW13" s="2" t="inlineStr">
         <is>
           <t>7783</t>
         </is>
       </c>
-      <c r="CS13" s="2" t="inlineStr">
+      <c r="CX13" s="2" t="inlineStr">
         <is>
           <t>22687</t>
         </is>
       </c>
-      <c r="CT13" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CU13" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CV13" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CW13" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CX13" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="CY13" s="2" t="inlineStr">
         <is>
           <t>nan</t>
@@ -5578,7 +5938,57 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="DB13" s="3" t="inlineStr">
+      <c r="DB13" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DC13" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DD13" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DE13" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DF13" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DG13" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DH13" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DI13" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DJ13" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DK13" s="2" t="inlineStr">
+        <is>
+          <t>926.970666</t>
+        </is>
+      </c>
+      <c r="DL13" s="3" t="inlineStr">
         <is>
           <t>dbaas-navigator_ycsb_mysql-rds-aws_1_dpN7i0aG</t>
         </is>
@@ -5852,101 +6262,81 @@
           <t>INNODB</t>
         </is>
       </c>
-      <c r="CF14" s="2" t="inlineStr">
+      <c r="CF14" s="2" t="inlineStr"/>
+      <c r="CG14" s="2" t="inlineStr"/>
+      <c r="CH14" s="2" t="inlineStr"/>
+      <c r="CI14" s="2" t="inlineStr"/>
+      <c r="CJ14" s="2" t="inlineStr"/>
+      <c r="CK14" s="2" t="inlineStr">
         <is>
           <t>4722.532335178899</t>
         </is>
       </c>
-      <c r="CG14" s="2" t="inlineStr">
+      <c r="CL14" s="2" t="inlineStr">
         <is>
           <t>21033.5797286</t>
         </is>
       </c>
-      <c r="CH14" s="2" t="inlineStr">
+      <c r="CM14" s="2" t="inlineStr">
         <is>
           <t>60.08056872037915</t>
         </is>
       </c>
-      <c r="CI14" s="2" t="inlineStr">
+      <c r="CN14" s="2" t="inlineStr">
         <is>
           <t>85</t>
         </is>
       </c>
-      <c r="CJ14" s="2" t="inlineStr">
+      <c r="CO14" s="2" t="inlineStr">
         <is>
           <t>103</t>
         </is>
       </c>
-      <c r="CK14" s="2" t="inlineStr">
+      <c r="CP14" s="2" t="inlineStr">
         <is>
           <t>8469.920762387717</t>
         </is>
       </c>
-      <c r="CL14" s="2" t="inlineStr">
+      <c r="CQ14" s="2" t="inlineStr">
         <is>
           <t>21092.891859876545</t>
         </is>
       </c>
-      <c r="CM14" s="2" t="inlineStr">
+      <c r="CR14" s="2" t="inlineStr">
         <is>
           <t>33627.94797687861</t>
         </is>
       </c>
-      <c r="CN14" s="2" t="inlineStr">
+      <c r="CS14" s="2" t="inlineStr">
         <is>
           <t>39615</t>
         </is>
       </c>
-      <c r="CO14" s="2" t="inlineStr">
+      <c r="CT14" s="2" t="inlineStr">
         <is>
           <t>56031</t>
         </is>
       </c>
-      <c r="CP14" s="2" t="inlineStr">
+      <c r="CU14" s="2" t="inlineStr">
         <is>
           <t>2227.731393296394</t>
         </is>
       </c>
-      <c r="CQ14" s="2" t="inlineStr">
+      <c r="CV14" s="2" t="inlineStr">
         <is>
           <t>3473.057803468208</t>
         </is>
       </c>
-      <c r="CR14" s="2" t="inlineStr">
+      <c r="CW14" s="2" t="inlineStr">
         <is>
           <t>5219</t>
         </is>
       </c>
-      <c r="CS14" s="2" t="inlineStr">
+      <c r="CX14" s="2" t="inlineStr">
         <is>
           <t>17743</t>
         </is>
       </c>
-      <c r="CT14" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CU14" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CV14" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CW14" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CX14" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="CY14" s="2" t="inlineStr">
         <is>
           <t>nan</t>
@@ -5962,7 +6352,57 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="DB14" s="3" t="inlineStr">
+      <c r="DB14" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DC14" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DD14" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DE14" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DF14" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DG14" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DH14" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DI14" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DJ14" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DK14" s="2" t="inlineStr">
+        <is>
+          <t>1353.563582</t>
+        </is>
+      </c>
+      <c r="DL14" s="3" t="inlineStr">
         <is>
           <t>dbaas-navigator_ycsb_mysql-scalegrid-aws_0_Hcb2Kigh</t>
         </is>
@@ -6236,101 +6676,81 @@
           <t>INNODB</t>
         </is>
       </c>
-      <c r="CF15" s="2" t="inlineStr">
+      <c r="CF15" s="2" t="inlineStr"/>
+      <c r="CG15" s="2" t="inlineStr"/>
+      <c r="CH15" s="2" t="inlineStr"/>
+      <c r="CI15" s="2" t="inlineStr"/>
+      <c r="CJ15" s="2" t="inlineStr"/>
+      <c r="CK15" s="2" t="inlineStr">
         <is>
           <t>4642.633301608673</t>
         </is>
       </c>
-      <c r="CG15" s="2" t="inlineStr">
+      <c r="CL15" s="2" t="inlineStr">
         <is>
           <t>21416.8907692</t>
         </is>
       </c>
-      <c r="CH15" s="2" t="inlineStr">
+      <c r="CM15" s="2" t="inlineStr">
         <is>
           <t>63.47441860465116</t>
         </is>
       </c>
-      <c r="CI15" s="2" t="inlineStr">
+      <c r="CN15" s="2" t="inlineStr">
         <is>
           <t>87</t>
         </is>
       </c>
-      <c r="CJ15" s="2" t="inlineStr">
+      <c r="CO15" s="2" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="CK15" s="2" t="inlineStr">
+      <c r="CP15" s="2" t="inlineStr">
         <is>
           <t>8411.84722144291</t>
         </is>
       </c>
-      <c r="CL15" s="2" t="inlineStr">
+      <c r="CQ15" s="2" t="inlineStr">
         <is>
           <t>21163.484952140432</t>
         </is>
       </c>
-      <c r="CM15" s="2" t="inlineStr">
+      <c r="CR15" s="2" t="inlineStr">
         <is>
           <t>34056.15606936416</t>
         </is>
       </c>
-      <c r="CN15" s="2" t="inlineStr">
+      <c r="CS15" s="2" t="inlineStr">
         <is>
           <t>40319</t>
         </is>
       </c>
-      <c r="CO15" s="2" t="inlineStr">
+      <c r="CT15" s="2" t="inlineStr">
         <is>
           <t>61023</t>
         </is>
       </c>
-      <c r="CP15" s="2" t="inlineStr">
+      <c r="CU15" s="2" t="inlineStr">
         <is>
           <t>2302.8063697681405</t>
         </is>
       </c>
-      <c r="CQ15" s="2" t="inlineStr">
+      <c r="CV15" s="2" t="inlineStr">
         <is>
           <t>3614.3872832369943</t>
         </is>
       </c>
-      <c r="CR15" s="2" t="inlineStr">
+      <c r="CW15" s="2" t="inlineStr">
         <is>
           <t>5487</t>
         </is>
       </c>
-      <c r="CS15" s="2" t="inlineStr">
+      <c r="CX15" s="2" t="inlineStr">
         <is>
           <t>17951</t>
         </is>
       </c>
-      <c r="CT15" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CU15" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CV15" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CW15" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CX15" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="CY15" s="2" t="inlineStr">
         <is>
           <t>nan</t>
@@ -6346,7 +6766,57 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="DB15" s="3" t="inlineStr">
+      <c r="DB15" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DC15" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DD15" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DE15" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DF15" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DG15" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DH15" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DI15" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DJ15" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DK15" s="2" t="inlineStr">
+        <is>
+          <t>1359.066831</t>
+        </is>
+      </c>
+      <c r="DL15" s="3" t="inlineStr">
         <is>
           <t>dbaas-navigator_ycsb_mysql-scalegrid-aws_0_IK9U7vAF</t>
         </is>
@@ -6620,101 +7090,81 @@
           <t>INNODB</t>
         </is>
       </c>
-      <c r="CF16" s="2" t="inlineStr">
+      <c r="CF16" s="2" t="inlineStr"/>
+      <c r="CG16" s="2" t="inlineStr"/>
+      <c r="CH16" s="2" t="inlineStr"/>
+      <c r="CI16" s="2" t="inlineStr"/>
+      <c r="CJ16" s="2" t="inlineStr"/>
+      <c r="CK16" s="2" t="inlineStr">
         <is>
           <t>4646.462299766516</t>
         </is>
       </c>
-      <c r="CG16" s="2" t="inlineStr">
+      <c r="CL16" s="2" t="inlineStr">
         <is>
           <t>21316.8531458</t>
         </is>
       </c>
-      <c r="CH16" s="2" t="inlineStr">
+      <c r="CM16" s="2" t="inlineStr">
         <is>
           <t>68.22790697674418</t>
         </is>
       </c>
-      <c r="CI16" s="2" t="inlineStr">
+      <c r="CN16" s="2" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="CJ16" s="2" t="inlineStr">
+      <c r="CO16" s="2" t="inlineStr">
         <is>
           <t>114</t>
         </is>
       </c>
-      <c r="CK16" s="2" t="inlineStr">
+      <c r="CP16" s="2" t="inlineStr">
         <is>
           <t>8024.518507489884</t>
         </is>
       </c>
-      <c r="CL16" s="2" t="inlineStr">
+      <c r="CQ16" s="2" t="inlineStr">
         <is>
           <t>22543.703220101568</t>
         </is>
       </c>
-      <c r="CM16" s="2" t="inlineStr">
+      <c r="CR16" s="2" t="inlineStr">
         <is>
           <t>37907.71676300578</t>
         </is>
       </c>
-      <c r="CN16" s="2" t="inlineStr">
+      <c r="CS16" s="2" t="inlineStr">
         <is>
           <t>44639</t>
         </is>
       </c>
-      <c r="CO16" s="2" t="inlineStr">
+      <c r="CT16" s="2" t="inlineStr">
         <is>
           <t>61183</t>
         </is>
       </c>
-      <c r="CP16" s="2" t="inlineStr">
+      <c r="CU16" s="2" t="inlineStr">
         <is>
           <t>2088.5263586964797</t>
         </is>
       </c>
-      <c r="CQ16" s="2" t="inlineStr">
+      <c r="CV16" s="2" t="inlineStr">
         <is>
           <t>4537.890173410405</t>
         </is>
       </c>
-      <c r="CR16" s="2" t="inlineStr">
+      <c r="CW16" s="2" t="inlineStr">
         <is>
           <t>7159</t>
         </is>
       </c>
-      <c r="CS16" s="2" t="inlineStr">
+      <c r="CX16" s="2" t="inlineStr">
         <is>
           <t>20575</t>
         </is>
       </c>
-      <c r="CT16" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CU16" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CV16" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CW16" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="CX16" s="2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="CY16" s="2" t="inlineStr">
         <is>
           <t>nan</t>
@@ -6730,9 +7180,1283 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="DB16" s="3" t="inlineStr">
+      <c r="DB16" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DC16" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DD16" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DE16" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DF16" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DG16" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DH16" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DI16" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DJ16" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DK16" s="2" t="inlineStr">
+        <is>
+          <t>1356.49107</t>
+        </is>
+      </c>
+      <c r="DL16" s="3" t="inlineStr">
         <is>
           <t>dbaas-navigator_ycsb_mysql-scalegrid-aws_0_YSI8P1vQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>benchANT</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>dbaas-navigator</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>ycsb</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>planetscale-aws</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>planetscale-aws</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>EC2</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>EC2</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>PLANETSCALE</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>PLANETSCALE</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>MYSQL</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>DBAAS</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8.0.21</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2" t="n">
+        <v>3484</v>
+      </c>
+      <c r="Q17" s="2" t="inlineStr"/>
+      <c r="R17" s="2" t="inlineStr"/>
+      <c r="S17" s="2" t="inlineStr"/>
+      <c r="T17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" s="2" t="inlineStr"/>
+      <c r="V17" s="2" t="inlineStr"/>
+      <c r="W17" s="2" t="inlineStr"/>
+      <c r="X17" s="2" t="inlineStr"/>
+      <c r="Y17" s="2" t="inlineStr"/>
+      <c r="Z17" s="2" t="inlineStr"/>
+      <c r="AA17" s="2" t="inlineStr"/>
+      <c r="AB17" s="2" t="inlineStr"/>
+      <c r="AC17" s="2" t="inlineStr">
+        <is>
+          <t>YCSB-Read-Write-Mix</t>
+        </is>
+      </c>
+      <c r="AD17" s="2" t="inlineStr">
+        <is>
+          <t>YCSB</t>
+        </is>
+      </c>
+      <c r="AE17" s="2" t="inlineStr">
+        <is>
+          <t>0.17.0</t>
+        </is>
+      </c>
+      <c r="AF17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI17" s="2" t="inlineStr">
+        <is>
+          <t>LOAD</t>
+        </is>
+      </c>
+      <c r="AJ17" s="2" t="inlineStr">
+        <is>
+          <t>site.ycsb.workloads.CoreWorkload</t>
+        </is>
+      </c>
+      <c r="AK17" s="2" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AL17" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM17" s="2" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="AN17" s="2" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="AO17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="2" t="n">
+        <v>54000000</v>
+      </c>
+      <c r="AQ17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS17" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="2" t="inlineStr">
+        <is>
+          <t>ZIPFIAN</t>
+        </is>
+      </c>
+      <c r="AW17" s="2" t="inlineStr">
+        <is>
+          <t>UNIFORM</t>
+        </is>
+      </c>
+      <c r="AX17" s="2" t="inlineStr">
+        <is>
+          <t>ORDERED</t>
+        </is>
+      </c>
+      <c r="AY17" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AZ17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BB17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE17" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF17" s="2" t="inlineStr"/>
+      <c r="BG17" s="2" t="inlineStr"/>
+      <c r="BH17" s="2" t="inlineStr"/>
+      <c r="BI17" s="2" t="inlineStr"/>
+      <c r="BJ17" s="2" t="inlineStr"/>
+      <c r="BK17" s="2" t="inlineStr"/>
+      <c r="BL17" s="2" t="inlineStr"/>
+      <c r="BM17" s="2" t="inlineStr">
+        <is>
+          <t>us-west-2</t>
+        </is>
+      </c>
+      <c r="BN17" s="2" t="inlineStr">
+        <is>
+          <t>c5.4xlarge</t>
+        </is>
+      </c>
+      <c r="BO17" s="2" t="inlineStr">
+        <is>
+          <t>x86_64</t>
+        </is>
+      </c>
+      <c r="BP17" s="2" t="inlineStr">
+        <is>
+          <t>ubuntu</t>
+        </is>
+      </c>
+      <c r="BQ17" s="2" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="BR17" s="2" t="inlineStr">
+        <is>
+          <t>GP2</t>
+        </is>
+      </c>
+      <c r="BS17" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="BT17" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="BU17" s="2" t="inlineStr"/>
+      <c r="BV17" s="2" t="inlineStr"/>
+      <c r="BW17" s="2" t="inlineStr"/>
+      <c r="BX17" s="2" t="inlineStr"/>
+      <c r="BY17" s="2" t="inlineStr"/>
+      <c r="BZ17" s="2" t="inlineStr"/>
+      <c r="CA17" s="2" t="inlineStr"/>
+      <c r="CB17" s="2" t="inlineStr"/>
+      <c r="CC17" s="2" t="inlineStr"/>
+      <c r="CD17" s="2" t="inlineStr"/>
+      <c r="CE17" s="2" t="inlineStr"/>
+      <c r="CF17" s="2" t="inlineStr">
+        <is>
+          <t>us-west</t>
+        </is>
+      </c>
+      <c r="CG17" s="2" t="inlineStr">
+        <is>
+          <t>scaler_pro</t>
+        </is>
+      </c>
+      <c r="CH17" s="2" t="inlineStr">
+        <is>
+          <t>PS_640</t>
+        </is>
+      </c>
+      <c r="CI17" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="CJ17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK17" s="2" t="inlineStr">
+        <is>
+          <t>3547.42894765875</t>
+        </is>
+      </c>
+      <c r="CL17" s="2" t="inlineStr">
+        <is>
+          <t>28027.3133501</t>
+        </is>
+      </c>
+      <c r="CM17" s="2" t="inlineStr">
+        <is>
+          <t>35220.2384341637</t>
+        </is>
+      </c>
+      <c r="CN17" s="2" t="inlineStr">
+        <is>
+          <t>276735</t>
+        </is>
+      </c>
+      <c r="CO17" s="2" t="inlineStr">
+        <is>
+          <t>318207</t>
+        </is>
+      </c>
+      <c r="CP17" s="2" t="inlineStr">
+        <is>
+          <t>5544.321680512794</t>
+        </is>
+      </c>
+      <c r="CQ17" s="2" t="inlineStr">
+        <is>
+          <t>27571.572925076587</t>
+        </is>
+      </c>
+      <c r="CR17" s="2" t="inlineStr">
+        <is>
+          <t>43512.526011560694</t>
+        </is>
+      </c>
+      <c r="CS17" s="2" t="inlineStr">
+        <is>
+          <t>50847</t>
+        </is>
+      </c>
+      <c r="CT17" s="2" t="inlineStr">
+        <is>
+          <t>64351</t>
+        </is>
+      </c>
+      <c r="CU17" s="2" t="inlineStr">
+        <is>
+          <t>8075.682601603406</t>
+        </is>
+      </c>
+      <c r="CV17" s="2" t="inlineStr">
+        <is>
+          <t>13506.00578034682</t>
+        </is>
+      </c>
+      <c r="CW17" s="2" t="inlineStr">
+        <is>
+          <t>19087</t>
+        </is>
+      </c>
+      <c r="CX17" s="2" t="inlineStr">
+        <is>
+          <t>33023</t>
+        </is>
+      </c>
+      <c r="CY17" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="CZ17" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DA17" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DB17" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DC17" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DD17" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DE17" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DF17" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DG17" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DH17" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DI17" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DJ17" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DK17" s="2" t="inlineStr">
+        <is>
+          <t>308.712369</t>
+        </is>
+      </c>
+      <c r="DL17" s="3" t="inlineStr">
+        <is>
+          <t>dbaas-navigator_ycsb_planetscale-aws_0_6mcsVx4A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>benchANT</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>dbaas-navigator</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>ycsb</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>planetscale-aws</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>planetscale-aws</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>EC2</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>EC2</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>PLANETSCALE</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>PLANETSCALE</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>MYSQL</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>DBAAS</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>8.0.21</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>3484</v>
+      </c>
+      <c r="Q18" s="2" t="inlineStr"/>
+      <c r="R18" s="2" t="inlineStr"/>
+      <c r="S18" s="2" t="inlineStr"/>
+      <c r="T18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" s="2" t="inlineStr"/>
+      <c r="V18" s="2" t="inlineStr"/>
+      <c r="W18" s="2" t="inlineStr"/>
+      <c r="X18" s="2" t="inlineStr"/>
+      <c r="Y18" s="2" t="inlineStr"/>
+      <c r="Z18" s="2" t="inlineStr"/>
+      <c r="AA18" s="2" t="inlineStr"/>
+      <c r="AB18" s="2" t="inlineStr"/>
+      <c r="AC18" s="2" t="inlineStr">
+        <is>
+          <t>YCSB-Read-Write-Mix</t>
+        </is>
+      </c>
+      <c r="AD18" s="2" t="inlineStr">
+        <is>
+          <t>YCSB</t>
+        </is>
+      </c>
+      <c r="AE18" s="2" t="inlineStr">
+        <is>
+          <t>0.17.0</t>
+        </is>
+      </c>
+      <c r="AF18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI18" s="2" t="inlineStr">
+        <is>
+          <t>LOAD</t>
+        </is>
+      </c>
+      <c r="AJ18" s="2" t="inlineStr">
+        <is>
+          <t>site.ycsb.workloads.CoreWorkload</t>
+        </is>
+      </c>
+      <c r="AK18" s="2" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AL18" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM18" s="2" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="AN18" s="2" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="AO18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="2" t="n">
+        <v>54000000</v>
+      </c>
+      <c r="AQ18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS18" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="2" t="inlineStr">
+        <is>
+          <t>ZIPFIAN</t>
+        </is>
+      </c>
+      <c r="AW18" s="2" t="inlineStr">
+        <is>
+          <t>UNIFORM</t>
+        </is>
+      </c>
+      <c r="AX18" s="2" t="inlineStr">
+        <is>
+          <t>ORDERED</t>
+        </is>
+      </c>
+      <c r="AY18" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AZ18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BB18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE18" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF18" s="2" t="inlineStr"/>
+      <c r="BG18" s="2" t="inlineStr"/>
+      <c r="BH18" s="2" t="inlineStr"/>
+      <c r="BI18" s="2" t="inlineStr"/>
+      <c r="BJ18" s="2" t="inlineStr"/>
+      <c r="BK18" s="2" t="inlineStr"/>
+      <c r="BL18" s="2" t="inlineStr"/>
+      <c r="BM18" s="2" t="inlineStr">
+        <is>
+          <t>us-west-2</t>
+        </is>
+      </c>
+      <c r="BN18" s="2" t="inlineStr">
+        <is>
+          <t>c5.4xlarge</t>
+        </is>
+      </c>
+      <c r="BO18" s="2" t="inlineStr">
+        <is>
+          <t>x86_64</t>
+        </is>
+      </c>
+      <c r="BP18" s="2" t="inlineStr">
+        <is>
+          <t>ubuntu</t>
+        </is>
+      </c>
+      <c r="BQ18" s="2" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="BR18" s="2" t="inlineStr">
+        <is>
+          <t>GP2</t>
+        </is>
+      </c>
+      <c r="BS18" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="BT18" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="BU18" s="2" t="inlineStr"/>
+      <c r="BV18" s="2" t="inlineStr"/>
+      <c r="BW18" s="2" t="inlineStr"/>
+      <c r="BX18" s="2" t="inlineStr"/>
+      <c r="BY18" s="2" t="inlineStr"/>
+      <c r="BZ18" s="2" t="inlineStr"/>
+      <c r="CA18" s="2" t="inlineStr"/>
+      <c r="CB18" s="2" t="inlineStr"/>
+      <c r="CC18" s="2" t="inlineStr"/>
+      <c r="CD18" s="2" t="inlineStr"/>
+      <c r="CE18" s="2" t="inlineStr"/>
+      <c r="CF18" s="2" t="inlineStr">
+        <is>
+          <t>us-west</t>
+        </is>
+      </c>
+      <c r="CG18" s="2" t="inlineStr">
+        <is>
+          <t>scaler_pro</t>
+        </is>
+      </c>
+      <c r="CH18" s="2" t="inlineStr">
+        <is>
+          <t>PS_640</t>
+        </is>
+      </c>
+      <c r="CI18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="CJ18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK18" s="2" t="inlineStr">
+        <is>
+          <t>3663.0814867129047</t>
+        </is>
+      </c>
+      <c r="CL18" s="2" t="inlineStr">
+        <is>
+          <t>27005.1784539</t>
+        </is>
+      </c>
+      <c r="CM18" s="2" t="inlineStr">
+        <is>
+          <t>38997.992647058825</t>
+        </is>
+      </c>
+      <c r="CN18" s="2" t="inlineStr">
+        <is>
+          <t>267775</t>
+        </is>
+      </c>
+      <c r="CO18" s="2" t="inlineStr">
+        <is>
+          <t>306943</t>
+        </is>
+      </c>
+      <c r="CP18" s="2" t="inlineStr">
+        <is>
+          <t>5659.764713986829</t>
+        </is>
+      </c>
+      <c r="CQ18" s="2" t="inlineStr">
+        <is>
+          <t>27309.696567918152</t>
+        </is>
+      </c>
+      <c r="CR18" s="2" t="inlineStr">
+        <is>
+          <t>42472.61849710983</t>
+        </is>
+      </c>
+      <c r="CS18" s="2" t="inlineStr">
+        <is>
+          <t>49599</t>
+        </is>
+      </c>
+      <c r="CT18" s="2" t="inlineStr">
+        <is>
+          <t>63519</t>
+        </is>
+      </c>
+      <c r="CU18" s="2" t="inlineStr">
+        <is>
+          <t>7560.249004817353</t>
+        </is>
+      </c>
+      <c r="CV18" s="2" t="inlineStr">
+        <is>
+          <t>12633.265895953757</t>
+        </is>
+      </c>
+      <c r="CW18" s="2" t="inlineStr">
+        <is>
+          <t>17199</t>
+        </is>
+      </c>
+      <c r="CX18" s="2" t="inlineStr">
+        <is>
+          <t>30303</t>
+        </is>
+      </c>
+      <c r="CY18" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="CZ18" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DA18" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DB18" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DC18" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DD18" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DE18" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DF18" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DG18" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DH18" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DI18" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DJ18" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DK18" s="2" t="inlineStr">
+        <is>
+          <t>308.906554</t>
+        </is>
+      </c>
+      <c r="DL18" s="3" t="inlineStr">
+        <is>
+          <t>dbaas-navigator_ycsb_planetscale-aws_0_IWksNUf1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>benchANT</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>dbaas-navigator</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>ycsb</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>planetscale-aws</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>planetscale-aws</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>EC2</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>EC2</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>PLANETSCALE</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>PLANETSCALE</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>MYSQL</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>DBAAS</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>8.0.21</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2" t="n">
+        <v>3484</v>
+      </c>
+      <c r="Q19" s="2" t="inlineStr"/>
+      <c r="R19" s="2" t="inlineStr"/>
+      <c r="S19" s="2" t="inlineStr"/>
+      <c r="T19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" s="2" t="inlineStr"/>
+      <c r="V19" s="2" t="inlineStr"/>
+      <c r="W19" s="2" t="inlineStr"/>
+      <c r="X19" s="2" t="inlineStr"/>
+      <c r="Y19" s="2" t="inlineStr"/>
+      <c r="Z19" s="2" t="inlineStr"/>
+      <c r="AA19" s="2" t="inlineStr"/>
+      <c r="AB19" s="2" t="inlineStr"/>
+      <c r="AC19" s="2" t="inlineStr">
+        <is>
+          <t>YCSB-Read-Write-Mix</t>
+        </is>
+      </c>
+      <c r="AD19" s="2" t="inlineStr">
+        <is>
+          <t>YCSB</t>
+        </is>
+      </c>
+      <c r="AE19" s="2" t="inlineStr">
+        <is>
+          <t>0.17.0</t>
+        </is>
+      </c>
+      <c r="AF19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AI19" s="2" t="inlineStr">
+        <is>
+          <t>LOAD</t>
+        </is>
+      </c>
+      <c r="AJ19" s="2" t="inlineStr">
+        <is>
+          <t>site.ycsb.workloads.CoreWorkload</t>
+        </is>
+      </c>
+      <c r="AK19" s="2" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AL19" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM19" s="2" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="AN19" s="2" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="AO19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="2" t="n">
+        <v>54000000</v>
+      </c>
+      <c r="AQ19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS19" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="2" t="inlineStr">
+        <is>
+          <t>ZIPFIAN</t>
+        </is>
+      </c>
+      <c r="AW19" s="2" t="inlineStr">
+        <is>
+          <t>UNIFORM</t>
+        </is>
+      </c>
+      <c r="AX19" s="2" t="inlineStr">
+        <is>
+          <t>ORDERED</t>
+        </is>
+      </c>
+      <c r="AY19" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AZ19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BB19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF19" s="2" t="inlineStr"/>
+      <c r="BG19" s="2" t="inlineStr"/>
+      <c r="BH19" s="2" t="inlineStr"/>
+      <c r="BI19" s="2" t="inlineStr"/>
+      <c r="BJ19" s="2" t="inlineStr"/>
+      <c r="BK19" s="2" t="inlineStr"/>
+      <c r="BL19" s="2" t="inlineStr"/>
+      <c r="BM19" s="2" t="inlineStr">
+        <is>
+          <t>us-west-2</t>
+        </is>
+      </c>
+      <c r="BN19" s="2" t="inlineStr">
+        <is>
+          <t>c5.4xlarge</t>
+        </is>
+      </c>
+      <c r="BO19" s="2" t="inlineStr">
+        <is>
+          <t>x86_64</t>
+        </is>
+      </c>
+      <c r="BP19" s="2" t="inlineStr">
+        <is>
+          <t>ubuntu</t>
+        </is>
+      </c>
+      <c r="BQ19" s="2" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="BR19" s="2" t="inlineStr">
+        <is>
+          <t>GP2</t>
+        </is>
+      </c>
+      <c r="BS19" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="BT19" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="BU19" s="2" t="inlineStr"/>
+      <c r="BV19" s="2" t="inlineStr"/>
+      <c r="BW19" s="2" t="inlineStr"/>
+      <c r="BX19" s="2" t="inlineStr"/>
+      <c r="BY19" s="2" t="inlineStr"/>
+      <c r="BZ19" s="2" t="inlineStr"/>
+      <c r="CA19" s="2" t="inlineStr"/>
+      <c r="CB19" s="2" t="inlineStr"/>
+      <c r="CC19" s="2" t="inlineStr"/>
+      <c r="CD19" s="2" t="inlineStr"/>
+      <c r="CE19" s="2" t="inlineStr"/>
+      <c r="CF19" s="2" t="inlineStr">
+        <is>
+          <t>us-west</t>
+        </is>
+      </c>
+      <c r="CG19" s="2" t="inlineStr">
+        <is>
+          <t>scaler_pro</t>
+        </is>
+      </c>
+      <c r="CH19" s="2" t="inlineStr">
+        <is>
+          <t>PS_640</t>
+        </is>
+      </c>
+      <c r="CI19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="CJ19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK19" s="2" t="inlineStr">
+        <is>
+          <t>3641.8820809568533</t>
+        </is>
+      </c>
+      <c r="CL19" s="2" t="inlineStr">
+        <is>
+          <t>27335.9563779</t>
+        </is>
+      </c>
+      <c r="CM19" s="2" t="inlineStr">
+        <is>
+          <t>35610.26277372263</t>
+        </is>
+      </c>
+      <c r="CN19" s="2" t="inlineStr">
+        <is>
+          <t>270079</t>
+        </is>
+      </c>
+      <c r="CO19" s="2" t="inlineStr">
+        <is>
+          <t>309247</t>
+        </is>
+      </c>
+      <c r="CP19" s="2" t="inlineStr">
+        <is>
+          <t>5829.598004466617</t>
+        </is>
+      </c>
+      <c r="CQ19" s="2" t="inlineStr">
+        <is>
+          <t>26529.20232650814</t>
+        </is>
+      </c>
+      <c r="CR19" s="2" t="inlineStr">
+        <is>
+          <t>41374.260115606936</t>
+        </is>
+      </c>
+      <c r="CS19" s="2" t="inlineStr">
+        <is>
+          <t>48447</t>
+        </is>
+      </c>
+      <c r="CT19" s="2" t="inlineStr">
+        <is>
+          <t>61343</t>
+        </is>
+      </c>
+      <c r="CU19" s="2" t="inlineStr">
+        <is>
+          <t>7370.04727292967</t>
+        </is>
+      </c>
+      <c r="CV19" s="2" t="inlineStr">
+        <is>
+          <t>11975.739884393064</t>
+        </is>
+      </c>
+      <c r="CW19" s="2" t="inlineStr">
+        <is>
+          <t>15911</t>
+        </is>
+      </c>
+      <c r="CX19" s="2" t="inlineStr">
+        <is>
+          <t>28927</t>
+        </is>
+      </c>
+      <c r="CY19" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="CZ19" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DA19" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DB19" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DC19" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DD19" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DE19" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DF19" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DG19" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DH19" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DI19" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DJ19" s="2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="DK19" s="2" t="inlineStr">
+        <is>
+          <t>308.266082</t>
+        </is>
+      </c>
+      <c r="DL19" s="3" t="inlineStr">
+        <is>
+          <t>dbaas-navigator_ycsb_planetscale-aws_0_KMIYSQdj</t>
         </is>
       </c>
     </row>
